--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Resultados_Geral_Cap1.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Resultados_Geral_Cap1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="80">
   <si>
     <t>Posição de Ocupação</t>
   </si>
@@ -260,12 +260,27 @@
   </si>
   <si>
     <t xml:space="preserve">Médio completo e  imcompleto </t>
+  </si>
+  <si>
+    <t>Médio incompleto e médio completo</t>
+  </si>
+  <si>
+    <t>Superior incompleto e superior completo</t>
+  </si>
+  <si>
+    <t>Tabela das porcentagens para geração dos gráficos</t>
+  </si>
+  <si>
+    <t>Tabela Calculos das porcentagem só das mulheres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,11 +329,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -332,16 +348,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -352,10 +359,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,6 +387,1175 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3257114301535651E-2"/>
+          <c:y val="0.12195638502491593"/>
+          <c:w val="0.89158565299406189"/>
+          <c:h val="0.66872937966631529"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sem instrução até fundamental completo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$B$27:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por Contra Própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Escolaridade'!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Médio incompleto e médio completo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$B$27:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por Contra Própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Escolaridade'!$B$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Superior incompleto e superior completo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Escolaridade'!$B$27:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empregadoras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trabalhadoras por Contra Própria</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empregadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Escolaridade'!$B$30:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1052861344"/>
+        <c:axId val="-1052867328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1052861344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1052867328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1052867328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1052861344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3014964887718678E-2"/>
+          <c:y val="0.8584376469887256"/>
+          <c:w val="0.89307567804024512"/>
+          <c:h val="0.13813745959923462"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,11 +1952,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -898,12 +2086,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -985,12 +2173,12 @@
       <c r="E27" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1022,7 +2210,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B33" t="s">
@@ -1102,12 +2290,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1142,7 +2330,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
@@ -1154,7 +2342,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="19"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +2352,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -1176,7 +2364,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="20"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1186,7 +2374,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
@@ -1198,7 +2386,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +2396,7 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
@@ -1220,7 +2408,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -1230,7 +2418,7 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
@@ -1242,7 +2430,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -1252,12 +2440,12 @@
       <c r="J12" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1382,13 +2570,13 @@
       <c r="F28" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1414,12 +2602,12 @@
       <c r="E36" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1439,7 +2627,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B48" t="s">
@@ -1530,16 +2718,16 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1550,7 +2738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1560,7 +2748,7 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1596,22 +2784,22 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1620,22 +2808,22 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1644,22 +2832,22 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1668,22 +2856,22 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1692,22 +2880,22 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1716,21 +2904,21 @@
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="14"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1756,31 +2944,31 @@
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1794,13 +2982,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1839,6 +3031,17 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="22">
+        <v>1205.83</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22">
+        <v>22198.48</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22">
+        <v>39378.78</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1847,6 +3050,17 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="22">
+        <v>13585</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22">
+        <v>171389.11</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22">
+        <v>283800.84999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1855,6 +3069,17 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="22">
+        <v>13055.96</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22">
+        <v>49564.2</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22">
+        <v>112507.57</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1863,6 +3088,24 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="21">
+        <f>SUM(C2,C3,C4)</f>
+        <v>27846.79</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21">
+        <f>SUM(E2,E3,E4)</f>
+        <v>243151.78999999998</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21">
+        <f>SUM(G2,G3,G4)</f>
+        <v>435687.2</v>
+      </c>
+      <c r="I5" s="21">
+        <f>SUM(C5,E5,G5)</f>
+        <v>706685.78</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1871,6 +3114,18 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="22">
+        <v>6684.59</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22">
+        <v>52675.519999999997</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22">
+        <v>134263.64000000001</v>
+      </c>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1879,6 +3134,19 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="22">
+        <v>33638.129999999997</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22">
+        <v>182859.61</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22">
+        <v>474189.17</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1887,6 +3155,25 @@
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="21">
+        <f>SUM(C5,C6)</f>
+        <v>34531.380000000005</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21">
+        <f>SUM(E6,E7)</f>
+        <v>235535.12999999998</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
+        <f>SUM(G6,G7)</f>
+        <v>608452.81000000006</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21">
+        <f>SUM(C8,E8,G8)</f>
+        <v>878519.32000000007</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1895,6 +3182,19 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="C9" s="22">
+        <v>9053.51</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22">
+        <v>24334.639999999999</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
+        <v>90373.32</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1903,6 +3203,19 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10" s="22">
+        <v>31382.29</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22">
+        <v>64538.06</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
+        <v>199916.94</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1911,6 +3224,25 @@
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="C11" s="21">
+        <f>SUM(C9,C10)</f>
+        <v>40435.800000000003</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
+        <f>SUM(E9,E10)</f>
+        <v>88872.7</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21">
+        <f>SUM(G9,G10)</f>
+        <v>290290.26</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21">
+        <f>SUM(C11,E11,G11)</f>
+        <v>419598.76</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -1919,6 +3251,24 @@
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="C12" s="21">
+        <f>SUM(C5,C8,C11)</f>
+        <v>102813.97</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21">
+        <f>SUM(E5,E8,E11)</f>
+        <v>567559.61999999988</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
+        <f>SUM(G5,G8,G11)</f>
+        <v>1334430.27</v>
+      </c>
+      <c r="I12" s="21">
+        <f>SUM(C12,E12,G12)</f>
+        <v>2004803.8599999999</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -1953,13 +3303,21 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>27846.79</v>
+      </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>243151.8</v>
+      </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>435687.2</v>
+      </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>706685.8</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -1968,13 +3326,21 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>34531.379999999997</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>235535.13</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>608452.81000000006</v>
+      </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>878519.32</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -1983,13 +3349,21 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3">
+        <v>40435.800000000003</v>
+      </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>88872.7</v>
+      </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>290290.26</v>
+      </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>419598.76</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -1998,13 +3372,21 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3">
+        <v>102813.97</v>
+      </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>567559.62</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>1334430.3</v>
+      </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>2004803.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2015,13 +3397,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2060,6 +3446,19 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="22">
+        <v>267.98</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22">
+        <v>4143.4799999999996</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22">
+        <v>16123.12</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2068,6 +3467,19 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="22">
+        <v>3758.42</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22">
+        <v>57741.22</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22">
+        <v>144783.82999999999</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2076,6 +3488,19 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="22">
+        <v>1858.74</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22">
+        <v>23068.91</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22">
+        <v>72163.56</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2084,6 +3509,25 @@
       <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="21">
+        <f>SUM(C2,C3,C4)</f>
+        <v>5885.14</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21">
+        <f>SUM(E2,E3,E4)</f>
+        <v>84953.61</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21">
+        <f>SUM(G2,G3,G4)</f>
+        <v>233070.50999999998</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21">
+        <f>SUM(C5,E5,G5)</f>
+        <v>323909.26</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2092,6 +3536,19 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="22">
+        <v>2961.7</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22">
+        <v>18150.02</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22">
+        <v>73818.23</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -2100,6 +3557,19 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
+      <c r="C7" s="22">
+        <v>13954.36</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22">
+        <v>111858.82</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22">
+        <v>381859.8</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -2108,6 +3578,25 @@
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="C8" s="21">
+        <f>SUM(C6,C7)</f>
+        <v>16916.060000000001</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21">
+        <f>SUM(E6,E7)</f>
+        <v>130008.84000000001</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
+        <f>SUM(G6,G7)</f>
+        <v>455678.02999999997</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21">
+        <f>SUM(C8,E8,G8)</f>
+        <v>602602.92999999993</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2116,6 +3605,19 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
+      <c r="C9" s="22">
+        <v>4535.9799999999996</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22">
+        <v>21275</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
+        <v>88672.26</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -2124,6 +3626,19 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
+      <c r="C10" s="22">
+        <v>19519.52</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22">
+        <v>77882.19</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
+        <v>281278.69</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -2132,6 +3647,25 @@
       <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="C11" s="21">
+        <f>SUM(C9,C10)</f>
+        <v>24055.5</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
+        <f>SUM(E9,E10)</f>
+        <v>99157.19</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21">
+        <f>SUM(G9,G10)</f>
+        <v>369950.95</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21">
+        <f>SUM(C11,E11,G11)</f>
+        <v>493163.64</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -2140,8 +3674,27 @@
       <c r="B12" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="21">
+        <f>SUM(C5,C8,C11)</f>
+        <v>46856.7</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21">
+        <f>SUM(E5,E8,E11)</f>
+        <v>314119.64</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
+        <f>SUM(G5,G8,G11)</f>
+        <v>1058699.49</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21">
+        <f>SUM(C12,E12,G12)</f>
+        <v>1419675.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>64</v>
       </c>
@@ -2163,58 +3716,97 @@
       <c r="G18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>5885.14</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>84953.61</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>233070.5</v>
+      </c>
+      <c r="I19" s="11">
+        <v>323909.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>16916.060000000001</v>
+      </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>130008.8</v>
+      </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>455678.03</v>
+      </c>
+      <c r="I20" s="11">
+        <v>602602.93000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>24055.5</v>
+      </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>99157.19</v>
+      </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <v>369950.95</v>
+      </c>
+      <c r="I21" s="11">
+        <v>493163.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>46856.7</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>314119.64</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>1058699.55</v>
+      </c>
+      <c r="I22" s="22">
+        <v>1419675.83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2223,19 +3815,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -2268,178 +3863,425 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="3">
+        <v>5885.14</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2/C4</f>
+        <v>0.17446792994056373</v>
+      </c>
+      <c r="E2" s="3">
+        <v>84953.61</v>
+      </c>
+      <c r="F2" s="4">
+        <f>E2/E4</f>
+        <v>0.25892169836516871</v>
+      </c>
+      <c r="G2" s="3">
+        <v>233070.5</v>
+      </c>
+      <c r="H2" s="4">
+        <f>G2/G4</f>
+        <v>0.3485126227331663</v>
+      </c>
+      <c r="I2" s="3">
+        <v>323909.26</v>
+      </c>
+      <c r="J2" s="4">
+        <f>I2/I4</f>
+        <v>0.31429343354314154</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="3">
+        <v>27846.79</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3/C4</f>
+        <v>0.8255320700594363</v>
+      </c>
+      <c r="E3" s="3">
+        <v>243151.8</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3/E4</f>
+        <v>0.74107830163483135</v>
+      </c>
+      <c r="G3" s="3">
+        <v>435687.2</v>
+      </c>
+      <c r="H3" s="4">
+        <f>G3/G4</f>
+        <v>0.65148737726683381</v>
+      </c>
+      <c r="I3" s="3">
+        <v>706685.8</v>
+      </c>
+      <c r="J3" s="4">
+        <f>I3/I4</f>
+        <v>0.68570656645685846</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="18"/>
+      <c r="C4" s="16">
+        <f>SUM(C2,C3)</f>
+        <v>33731.93</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16">
+        <f>SUM(E2,E3)</f>
+        <v>328105.40999999997</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16">
+        <f>SUM(G2,G3)</f>
+        <v>668757.69999999995</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16">
+        <f>SUM(I2,I3)</f>
+        <v>1030595.06</v>
+      </c>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
+      <c r="C5" s="3">
+        <v>16916.060000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5/C7</f>
+        <v>0.3288027548115125</v>
+      </c>
+      <c r="E5" s="3">
+        <v>130008.8</v>
+      </c>
+      <c r="F5" s="4">
+        <f>E5/E7</f>
+        <v>0.35565848405689571</v>
+      </c>
+      <c r="G5" s="3">
+        <v>455678.03</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5/G7</f>
+        <v>0.42821616747805186</v>
+      </c>
+      <c r="I5" s="3">
+        <v>602602.93000000005</v>
+      </c>
+      <c r="J5" s="4">
+        <f>I5/I7</f>
+        <v>0.4068556326123654</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="20"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
+      <c r="C6" s="3">
+        <v>34531.379999999997</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6/C7</f>
+        <v>0.67119724518848745</v>
+      </c>
+      <c r="E6" s="3">
+        <v>235535.13</v>
+      </c>
+      <c r="F6" s="4">
+        <f>E6/E7</f>
+        <v>0.64434151594310429</v>
+      </c>
+      <c r="G6" s="3">
+        <v>608452.81000000006</v>
+      </c>
+      <c r="H6" s="4">
+        <f>G6/G7</f>
+        <v>0.5717838325219482</v>
+      </c>
+      <c r="I6" s="3">
+        <v>878519.32</v>
+      </c>
+      <c r="J6" s="4">
+        <f>I6/I7</f>
+        <v>0.59314436738763454</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18"/>
+      <c r="C7" s="16">
+        <f>SUM(C5,C6)</f>
+        <v>51447.44</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16">
+        <f>SUM(E5,E6)</f>
+        <v>365543.93</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16">
+        <f>SUM(G5,G6)</f>
+        <v>1064130.8400000001</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16">
+        <f>SUM(I5,I6)</f>
+        <v>1481122.25</v>
+      </c>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="3">
+        <v>24055.5</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8/C10</f>
+        <v>0.37300380051262727</v>
+      </c>
+      <c r="E8" s="3">
+        <v>99157.19</v>
+      </c>
+      <c r="F8" s="4">
+        <f>E8/E10</f>
+        <v>0.52734801897719552</v>
+      </c>
+      <c r="G8" s="3">
+        <v>369950.95</v>
+      </c>
+      <c r="H8" s="4">
+        <f>G8/G10</f>
+        <v>0.56032695990000392</v>
+      </c>
+      <c r="I8" s="3">
+        <v>493163.4</v>
+      </c>
+      <c r="J8" s="4">
+        <f>I8/I10</f>
+        <v>0.54029781427398349</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
+      <c r="C9" s="3">
+        <v>40435.800000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9/C10</f>
+        <v>0.62699619948737273</v>
+      </c>
+      <c r="E9" s="3">
+        <v>88872.7</v>
+      </c>
+      <c r="F9" s="4">
+        <f>E9/E10</f>
+        <v>0.47265198102280437</v>
+      </c>
+      <c r="G9" s="3">
+        <v>290290.26</v>
+      </c>
+      <c r="H9" s="4">
+        <f>G9/G10</f>
+        <v>0.43967304009999619</v>
+      </c>
+      <c r="I9" s="3">
+        <v>419598.76</v>
+      </c>
+      <c r="J9" s="4">
+        <f>I9/I10</f>
+        <v>0.45970218572601651</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
+      <c r="C10" s="16">
+        <f>SUM(C8,C9)</f>
+        <v>64491.3</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16">
+        <f>SUM(E8,E9)</f>
+        <v>188029.89</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16">
+        <f>SUM(G8,G9)</f>
+        <v>660241.21</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16">
+        <f>SUM(I8,I9)</f>
+        <v>912762.16</v>
+      </c>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="3">
+        <v>46856.7</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11/C13</f>
+        <v>0.31306534540134018</v>
+      </c>
+      <c r="E11" s="3">
+        <v>314119.64</v>
+      </c>
+      <c r="F11" s="4">
+        <f>E11/E13</f>
+        <v>0.35627427597650418</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1058699.55</v>
+      </c>
+      <c r="H11" s="4">
+        <f>G11/G13</f>
+        <v>0.44239118491627188</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1419675.83</v>
+      </c>
+      <c r="J11" s="4">
+        <f>I11/I13</f>
+        <v>0.41456686619079508</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
+      <c r="C12" s="3">
+        <v>102813.97</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12/C13</f>
+        <v>0.68693465459865988</v>
+      </c>
+      <c r="E12" s="3">
+        <v>567559.62</v>
+      </c>
+      <c r="F12" s="2">
+        <f>E12/E13</f>
+        <v>0.64372572402349582</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1334430.3</v>
+      </c>
+      <c r="H12" s="2">
+        <f>G12/G13</f>
+        <v>0.55760881508372806</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2004803.9</v>
+      </c>
+      <c r="J12" s="2">
+        <f>I12/I13</f>
+        <v>0.58543313380920492</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="16">
+        <f>SUM(C11,C12)</f>
+        <v>149670.66999999998</v>
+      </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="16">
+        <f>SUM(E11,E12)</f>
+        <v>881679.26</v>
+      </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="16">
+        <f>SUM(G11,G12)</f>
+        <v>2393129.85</v>
+      </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="16">
+        <f>SUM(I11,I12)</f>
+        <v>3424479.73</v>
+      </c>
       <c r="J13" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2454,16 +4296,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2498,46 +4344,190 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="3">
+        <v>5885.14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>84953.61</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="G2" s="3">
+        <v>233070.5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="I2" s="3">
+        <v>323909.26</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="3">
+        <v>27846.79</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="E3" s="3">
+        <v>243151.8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="G3" s="3">
+        <v>435687.2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I3" s="3">
+        <v>706685.8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="3">
+        <v>16916.060000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="3">
+        <v>130008.8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="G4" s="3">
+        <v>455678.03</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="I4" s="3">
+        <v>602602.93000000005</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="20"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="3">
+        <v>34531.379999999997</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E5" s="3">
+        <v>235535.13</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G5" s="3">
+        <v>608452.81000000006</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I5" s="3">
+        <v>878519.32</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="3">
+        <v>24055.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="E6" s="3">
+        <v>99157.19</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="G6" s="3">
+        <v>369950.95</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I6" s="3">
+        <v>493163.64</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>40435.800000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="E7" s="3">
+        <v>88872.7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="G7" s="3">
+        <v>290290.26</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="I7" s="3">
+        <v>419598.76</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2547,13 +4537,352 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
+      <c r="C8" s="3">
+        <v>46856.7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="E8" s="3">
+        <v>314119.64</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1058699.55</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1419675.83</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="C9" s="3">
+        <v>102813.97</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E9" s="3">
+        <v>567559.62</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1334430.3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2004803.9</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5885.14</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18/C21</f>
+        <v>0.12559868706076188</v>
+      </c>
+      <c r="E18" s="3">
+        <v>84953.61</v>
+      </c>
+      <c r="F18" s="4">
+        <f>E18/E21</f>
+        <v>0.27044985152790829</v>
+      </c>
+      <c r="G18" s="3">
+        <v>233070.5</v>
+      </c>
+      <c r="H18" s="4">
+        <f>E18/E21</f>
+        <v>0.27044985152790829</v>
+      </c>
+      <c r="I18" s="3">
+        <v>323909.26</v>
+      </c>
+      <c r="J18" s="2">
+        <f>SUM(I18/I21)</f>
+        <v>0.22815719839366427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16916.060000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <f>C19/C21</f>
+        <v>0.36101688765960904</v>
+      </c>
+      <c r="E19" s="3">
+        <v>130008.8</v>
+      </c>
+      <c r="F19" s="4">
+        <f>E19/E21</f>
+        <v>0.41388306697409943</v>
+      </c>
+      <c r="G19" s="3">
+        <v>455678.03</v>
+      </c>
+      <c r="H19" s="4">
+        <f>E19/E21</f>
+        <v>0.41388306697409943</v>
+      </c>
+      <c r="I19" s="3">
+        <v>602602.93000000005</v>
+      </c>
+      <c r="J19" s="2">
+        <f>I19/I21</f>
+        <v>0.42446516117697097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>24055.5</v>
+      </c>
+      <c r="D20" s="4">
+        <f>C20/C21</f>
+        <v>0.51338442527962924</v>
+      </c>
+      <c r="E20" s="3">
+        <v>99157.19</v>
+      </c>
+      <c r="F20" s="4">
+        <f>E20/E21</f>
+        <v>0.31566695415797624</v>
+      </c>
+      <c r="G20" s="3">
+        <v>369950.95</v>
+      </c>
+      <c r="H20" s="4">
+        <f>E20/E21</f>
+        <v>0.31566695415797624</v>
+      </c>
+      <c r="I20" s="3">
+        <v>493163.64</v>
+      </c>
+      <c r="J20" s="2">
+        <f>I20/I21</f>
+        <v>0.34737764042936475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>46856.7</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3">
+        <v>314119.64</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3">
+        <v>1058699.55</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3">
+        <f>SUM(I18,I19,I20)</f>
+        <v>1419675.83</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.41</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.32</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Resultados_Geral_Cap1.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Resultados_Geral_Cap1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MediaLab\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPEI-CIGETS-UFG\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2EEB6-CAC6-4848-A07A-0DE7DEE31F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Ocupação" sheetId="1" r:id="rId1"/>
@@ -22,17 +23,26 @@
     <sheet name="Calculo Escolaridade H e M" sheetId="9" r:id="rId8"/>
     <sheet name="Tabela Escolaridade" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="79">
   <si>
     <t>Posição de Ocupação</t>
   </si>
@@ -76,9 +86,6 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>Tabela com as porcentagens para a geração dos gáficos</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Área da UF </t>
   </si>
   <si>
@@ -260,12 +267,27 @@
   </si>
   <si>
     <t xml:space="preserve">Médio completo e  imcompleto </t>
+  </si>
+  <si>
+    <t>Tabela com as porcentagens para a geração do gáfico</t>
+  </si>
+  <si>
+    <t>Tabela para Geração do gráfico de empreendedores por sexo</t>
+  </si>
+  <si>
+    <t>Homens empregadores e trabalhadores por conta própria</t>
+  </si>
+  <si>
+    <t>Total de empreendedores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,9 +340,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -332,16 +353,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -351,6 +363,42 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,11 +680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,79 +692,187 @@
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="57.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="22">
+        <v>46856.695689430002</v>
+      </c>
+      <c r="C2" s="23">
+        <f>B2/F2</f>
+        <v>0.30140286818898332</v>
+      </c>
+      <c r="D2" s="22">
+        <v>108605.31424755001</v>
+      </c>
+      <c r="E2" s="23">
+        <f>D2/F2</f>
+        <v>0.69859713181101668</v>
+      </c>
+      <c r="F2" s="24">
+        <f>SUM(B2,D2)</f>
+        <v>155462.00993698</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="22">
+        <v>314119.64568776003</v>
+      </c>
+      <c r="C3" s="23">
+        <f t="shared" ref="C3:C5" si="0">B3/F3</f>
+        <v>0.35627427802930739</v>
+      </c>
+      <c r="D3" s="22">
+        <v>567559.62519667996</v>
+      </c>
+      <c r="E3" s="23">
+        <f t="shared" ref="E3:E5" si="1">D3/F3</f>
+        <v>0.64372572197069255</v>
+      </c>
+      <c r="F3" s="24">
+        <f t="shared" ref="F3:F5" si="2">SUM(B3,D3)</f>
+        <v>881679.27088444005</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="22">
+        <f>D2+D3</f>
+        <v>676164.93944422994</v>
+      </c>
+      <c r="M3" s="3">
+        <f>L3/L6</f>
+        <v>0.65195065701049393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="22">
+        <v>1058699.47502136</v>
+      </c>
+      <c r="C4" s="23">
+        <f t="shared" si="0"/>
+        <v>0.44239117086800733</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1334430.28148826</v>
+      </c>
+      <c r="E4" s="23">
+        <f t="shared" si="1"/>
+        <v>0.55760882913199272</v>
+      </c>
+      <c r="F4" s="24">
+        <f t="shared" si="2"/>
+        <v>2393129.7565096198</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="22">
+        <v>314119.64568776003</v>
+      </c>
+      <c r="M4" s="3">
+        <f>L4/L6</f>
+        <v>0.30287064211635278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
+        <f>SUM(B2:B4)</f>
+        <v>1419675.8163985501</v>
+      </c>
+      <c r="C5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.41386695131331208</v>
+      </c>
+      <c r="D5" s="25">
+        <f>SUM(D2:D4)</f>
+        <v>2010595.22093249</v>
+      </c>
+      <c r="E5" s="23">
+        <f t="shared" si="1"/>
+        <v>0.58613304868668792</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" si="2"/>
+        <v>3430271.03733104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="22">
+        <v>46856.695689430002</v>
+      </c>
+      <c r="M5" s="3">
+        <f>L5/L6</f>
+        <v>4.5178700873153281E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="22">
+        <f>SUM(L3:L5)</f>
+        <v>1037141.28082142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -727,167 +883,266 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>17846.188868519999</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21">
+        <v>97821.983621070001</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21">
+        <v>248914.15640363001</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>3797.0801678299999</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21">
+        <v>54077.695507119999</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21">
+        <v>170801.8670617</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3370.01899701</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21">
+        <v>45158.920134469998</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21">
+        <v>189693.31164868001</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
+        <v>21843.407656070001</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21">
+        <v>117061.04642509999</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
+        <v>449290.13990735001</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -898,25 +1153,25 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -927,51 +1182,51 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -980,33 +1235,33 @@
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
         <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F32" t="s">
         <v>2</v>
@@ -1022,72 +1277,73 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>18</v>
+      <c r="A33" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>20</v>
+      <c r="A34" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>22</v>
+      <c r="A35" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>24</v>
+      <c r="A36" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1102,19 +1358,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1122,8 +1378,8 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1142,223 +1398,223 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>18</v>
+      <c r="A3" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="18"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>20</v>
+      <c r="A5" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
+      <c r="A7" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>24</v>
+      <c r="A9" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1367,120 +1623,120 @@
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="A34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
         <v>43</v>
       </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
       <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1498,7 +1754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1514,13 +1770,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>53</v>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -1530,16 +1786,16 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1547,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1560,12 +1816,12 @@
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1573,8 +1829,8 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>55</v>
+      <c r="E1" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1591,123 +1847,123 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="14"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1716,71 +1972,71 @@
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1791,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1805,10 +2061,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1817,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1833,99 +2089,99 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>64</v>
+      <c r="A20" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1934,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -1947,64 +2203,64 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>68</v>
+      <c r="A21" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>75</v>
+      <c r="A22" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>74</v>
+      <c r="A23" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2012,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2026,10 +2282,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2038,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2054,99 +2310,99 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>64</v>
+      <c r="A18" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2155,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -2165,56 +2421,56 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>68</v>
+      <c r="A19" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>75</v>
+      <c r="A20" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>74</v>
+      <c r="A21" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2222,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2235,12 +2491,12 @@
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>64</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2249,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2268,178 +2524,178 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>68</v>
+      <c r="A2" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="18"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>75</v>
+      <c r="A5" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>74</v>
+      <c r="A8" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2453,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2468,10 +2724,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2480,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2499,43 +2755,43 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>68</v>
+      <c r="A2" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>75</v>
+      <c r="A4" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>74</v>
+      <c r="A6" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>

--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Resultados_Geral_Cap1.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Resultados_Geral_Cap1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MediaLab\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MediaLab\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9135" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9135" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Total Ocupação" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Calculo Escolaridade M" sheetId="6" r:id="rId7"/>
     <sheet name="Calculo Escolaridade H e M" sheetId="9" r:id="rId8"/>
     <sheet name="Tabela Escolaridade" sheetId="7" r:id="rId9"/>
+    <sheet name="Media de Idade" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="81">
   <si>
     <t>Posição de Ocupação</t>
   </si>
@@ -272,6 +273,9 @@
   </si>
   <si>
     <t>Tabela Calculos das porcentagem só das mulheres</t>
+  </si>
+  <si>
+    <t>Ocupação</t>
   </si>
 </sst>
 </file>
@@ -784,11 +788,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-597089952"/>
-        <c:axId val="-597084512"/>
+        <c:axId val="-1235616608"/>
+        <c:axId val="-1235613888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-597089952"/>
+        <c:axId val="-1235616608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +835,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-597084512"/>
+        <c:crossAx val="-1235613888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -839,7 +843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-597084512"/>
+        <c:axId val="-1235613888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +894,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-597089952"/>
+        <c:crossAx val="-1235616608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1936,11 +1940,73 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43.058999999999997</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41.35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43.372999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37.173999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36.398000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -2278,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -2982,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -4298,8 +4364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
